--- a/data/input/absenteeism_data_23.xlsx
+++ b/data/input/absenteeism_data_23.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1236</v>
+        <v>24756</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr. Matheus Ferreira</t>
+          <t>Alexandre da Paz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,85 +494,85 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45096</v>
+        <v>45088</v>
       </c>
       <c r="G2" t="n">
-        <v>4197.2</v>
+        <v>3344.55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>47919</v>
+        <v>59321</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ryan Freitas</t>
+          <t>Ana Beatriz da Cunha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45096</v>
+        <v>45089</v>
       </c>
       <c r="G3" t="n">
-        <v>12271.94</v>
+        <v>5492.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98520</v>
+        <v>11730</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>André Pires</t>
+          <t>Maria Sophia Costa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45084</v>
+        <v>45080</v>
       </c>
       <c r="G4" t="n">
-        <v>8267.99</v>
+        <v>9079.52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>81915</v>
+        <v>80512</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clarice Moreira</t>
+          <t>Maria Sophia Martins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,51 +581,51 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45085</v>
+        <v>45084</v>
       </c>
       <c r="G5" t="n">
-        <v>11432.16</v>
+        <v>7057.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>41710</v>
+        <v>60041</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Raul Peixoto</t>
+          <t>Dr. Raul Ribeiro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45082</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>12093.78</v>
+        <v>3331.19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30696</v>
+        <v>92089</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dr. Rafael Nunes</t>
+          <t>Catarina Moraes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,133 +635,133 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45098</v>
+        <v>45103</v>
       </c>
       <c r="G7" t="n">
-        <v>10861.83</v>
+        <v>4858.56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>59946</v>
+        <v>66154</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Clarice Martins</t>
+          <t>Srta. Bruna Azevedo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45085</v>
       </c>
       <c r="G8" t="n">
-        <v>7903.44</v>
+        <v>8883.049999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62205</v>
+        <v>52491</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nicole Souza</t>
+          <t>Felipe Pinto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45090</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>2606.98</v>
+        <v>5469.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>95314</v>
+        <v>22720</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Diego Duarte</t>
+          <t>Renan Fogaça</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45092</v>
+        <v>45090</v>
       </c>
       <c r="G10" t="n">
-        <v>11156.65</v>
+        <v>12347.92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1972</v>
+        <v>64166</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Isadora Peixoto</t>
+          <t>Augusto da Paz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45078</v>
+        <v>45098</v>
       </c>
       <c r="G11" t="n">
-        <v>3993.66</v>
+        <v>7197.52</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_23.xlsx
+++ b/data/input/absenteeism_data_23.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24756</v>
+        <v>242</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alexandre da Paz</t>
+          <t>Emanuel Fernandes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45088</v>
+        <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>3344.55</v>
+        <v>7443.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>59321</v>
+        <v>50351</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Beatriz da Cunha</t>
+          <t>Benjamin Cardoso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,27 +523,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45089</v>
+        <v>45104</v>
       </c>
       <c r="G3" t="n">
-        <v>5492.92</v>
+        <v>9879.280000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11730</v>
+        <v>90122</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Sophia Costa</t>
+          <t>Srta. Ana Júlia Castro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,85 +552,85 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45080</v>
+        <v>45090</v>
       </c>
       <c r="G4" t="n">
-        <v>9079.52</v>
+        <v>9746.450000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80512</v>
+        <v>48076</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maria Sophia Martins</t>
+          <t>Sra. Ana Clara Farias</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45084</v>
+        <v>45083</v>
       </c>
       <c r="G5" t="n">
-        <v>7057.88</v>
+        <v>6315.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>60041</v>
+        <v>62562</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr. Raul Ribeiro</t>
+          <t>Breno Rocha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45085</v>
+        <v>45097</v>
       </c>
       <c r="G6" t="n">
-        <v>3331.19</v>
+        <v>4760.37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>92089</v>
+        <v>84758</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Catarina Moraes</t>
+          <t>Luiz Miguel Porto</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -642,24 +642,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45103</v>
+        <v>45097</v>
       </c>
       <c r="G7" t="n">
-        <v>4858.56</v>
+        <v>9450.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>66154</v>
+        <v>57868</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Srta. Bruna Azevedo</t>
+          <t>Dra. Gabrielly Gomes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,27 +668,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45085</v>
+        <v>45079</v>
       </c>
       <c r="G8" t="n">
-        <v>8883.049999999999</v>
+        <v>10420.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>52491</v>
+        <v>96191</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Felipe Pinto</t>
+          <t>Miguel da Paz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -700,68 +700,68 @@
         <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45106</v>
       </c>
       <c r="G9" t="n">
-        <v>5469.08</v>
+        <v>7918.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>22720</v>
+        <v>54496</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Renan Fogaça</t>
+          <t>Srta. Rafaela Carvalho</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45090</v>
+        <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>12347.92</v>
+        <v>8775.34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>64166</v>
+        <v>78845</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Augusto da Paz</t>
+          <t>Vitor Gabriel Pereira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45098</v>
+        <v>45083</v>
       </c>
       <c r="G11" t="n">
-        <v>7197.52</v>
+        <v>6127.13</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_23.xlsx
+++ b/data/input/absenteeism_data_23.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>242</v>
+        <v>55900</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emanuel Fernandes</t>
+          <t>Sr. Leandro Cardoso</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45085</v>
+        <v>45099</v>
       </c>
       <c r="G2" t="n">
-        <v>7443.82</v>
+        <v>12471.32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50351</v>
+        <v>26178</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Benjamin Cardoso</t>
+          <t>Srta. Ana Luiza Gonçalves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45104</v>
+        <v>45080</v>
       </c>
       <c r="G3" t="n">
-        <v>9879.280000000001</v>
+        <v>6361.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>90122</v>
+        <v>765</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Srta. Ana Júlia Castro</t>
+          <t>João Vitor Lima</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,51 +552,51 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45090</v>
+        <v>45078</v>
       </c>
       <c r="G4" t="n">
-        <v>9746.450000000001</v>
+        <v>11565.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>48076</v>
+        <v>13484</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sra. Ana Clara Farias</t>
+          <t>Julia Porto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45083</v>
+        <v>45088</v>
       </c>
       <c r="G5" t="n">
-        <v>6315.36</v>
+        <v>10902.68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>62562</v>
+        <v>18868</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Breno Rocha</t>
+          <t>Bianca Alves</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,158 +610,158 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45097</v>
+        <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>4760.37</v>
+        <v>9552.120000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>84758</v>
+        <v>46857</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luiz Miguel Porto</t>
+          <t>Emilly Barros</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45097</v>
+        <v>45083</v>
       </c>
       <c r="G7" t="n">
-        <v>9450.4</v>
+        <v>6113.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>57868</v>
+        <v>24227</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dra. Gabrielly Gomes</t>
+          <t>Sophia da Conceição</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45079</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>10420.33</v>
+        <v>6157.27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96191</v>
+        <v>31693</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Miguel da Paz</t>
+          <t>Luiz Otávio Rodrigues</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45106</v>
+        <v>45081</v>
       </c>
       <c r="G9" t="n">
-        <v>7918.4</v>
+        <v>6862.98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>54496</v>
+        <v>628</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Srta. Rafaela Carvalho</t>
+          <t>Fernanda Azevedo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45083</v>
+        <v>45080</v>
       </c>
       <c r="G10" t="n">
-        <v>8775.34</v>
+        <v>5294.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>78845</v>
+        <v>97457</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vitor Gabriel Pereira</t>
+          <t>Miguel Costa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45083</v>
+        <v>45106</v>
       </c>
       <c r="G11" t="n">
-        <v>6127.13</v>
+        <v>3257.78</v>
       </c>
     </row>
   </sheetData>
